--- a/Chibest.Common/Excel/MauFileNhapHang.xlsx
+++ b/Chibest.Common/Excel/MauFileNhapHang.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0609274-1D34-4583-90E3-5A623FF17AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62E5106-8698-44D1-9CC6-97D728B6A334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4752" yWindow="1560" windowWidth="17280" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PurchaseOrderTemplate" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,13 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>aos</t>
-  </si>
-  <si>
     <t>Phí hàng Tái</t>
   </si>
   <si>
-    <t>ass</t>
+    <t>av</t>
+  </si>
+  <si>
+    <t>at</t>
   </si>
 </sst>
 </file>
@@ -61,11 +61,10 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="calibri"/>
-      <family val="2"/>
+      <color rgb="FFA2FCA2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -84,31 +83,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE1E3E6"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -428,7 +416,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -459,7 +447,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>300</v>
@@ -472,19 +460,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
       <c r="E3" s="3">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">

--- a/Chibest.Common/Excel/MauFileNhapHang.xlsx
+++ b/Chibest.Common/Excel/MauFileNhapHang.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62E5106-8698-44D1-9CC6-97D728B6A334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4C7DC5-F72A-4F7B-85F9-468F9C337544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4752" yWindow="1560" windowWidth="17280" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Mã hàng</t>
   </si>
@@ -32,10 +32,13 @@
     <t>Phí hàng Tái</t>
   </si>
   <si>
-    <t>av</t>
-  </si>
-  <si>
-    <t>at</t>
+    <t>adt</t>
+  </si>
+  <si>
+    <t>adh</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,14 +476,20 @@
       <c r="D3" s="3">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
-        <v>10</v>
-      </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
+      <c r="E4">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
